--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_664.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_664.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32525-d84173-Reviews-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>85</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Rodeway-Inn-Suites-LAX.h920.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_664.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_664.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,799 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r567961508-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>32525</t>
+  </si>
+  <si>
+    <t>84173</t>
+  </si>
+  <si>
+    <t>567961508</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Older - Not Exceptional but Clean and Comfortable</t>
+  </si>
+  <si>
+    <t>As a Choice Privileges Diamond Elite member, I stay at Choice-branded properties well over 100 nights per year, of which Rodeway is one of their brands.  This particular property is not exceptional, but it is adequate and provides all of the basis.
+Don't expect elegance, as this is an older motel, and the property, while generally well maintained, shows many signs of wear and tear.  My room, however, was quite clean, with adequate furnishings, a comfortable bed, and ample work space.  Bathroom was very clean with a strong stream of hot water from the shower.  There was a small fridge and microwave, although I do not know if these are features of every room.  
+Front desk service was friendly and reasonably efficient.  Lobby is very tiny and serves only as a place to check guests in and out.  I noticed a juice machine and a coffee brewer on the counter and believe that the motel offers these amenities in the morning, but i do not know if there are additional breakfast items available.  There is a soft drink vending machine just outside the lobby door with a small variety of flavors for $1 and bottled water for $2.
+Rooms are accessed via a courtyard / parking area off of the street in what appears to be a generally safe neighborhood and configuration.
+Overall a satisfactory stay at a reasonable price (for the Los Angeles area).  Los Angeles airport is less...As a Choice Privileges Diamond Elite member, I stay at Choice-branded properties well over 100 nights per year, of which Rodeway is one of their brands.  This particular property is not exceptional, but it is adequate and provides all of the basis.Don't expect elegance, as this is an older motel, and the property, while generally well maintained, shows many signs of wear and tear.  My room, however, was quite clean, with adequate furnishings, a comfortable bed, and ample work space.  Bathroom was very clean with a strong stream of hot water from the shower.  There was a small fridge and microwave, although I do not know if these are features of every room.  Front desk service was friendly and reasonably efficient.  Lobby is very tiny and serves only as a place to check guests in and out.  I noticed a juice machine and a coffee brewer on the counter and believe that the motel offers these amenities in the morning, but i do not know if there are additional breakfast items available.  There is a soft drink vending machine just outside the lobby door with a small variety of flavors for $1 and bottled water for $2.Rooms are accessed via a courtyard / parking area off of the street in what appears to be a generally safe neighborhood and configuration.Overall a satisfactory stay at a reasonable price (for the Los Angeles area).  Los Angeles airport is less than 10 minutes away when traffic is light.If all you are looking for is something simple and reasonably priced, this property may well fill the bill.  I've stayed here twice and would return in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>As a Choice Privileges Diamond Elite member, I stay at Choice-branded properties well over 100 nights per year, of which Rodeway is one of their brands.  This particular property is not exceptional, but it is adequate and provides all of the basis.
+Don't expect elegance, as this is an older motel, and the property, while generally well maintained, shows many signs of wear and tear.  My room, however, was quite clean, with adequate furnishings, a comfortable bed, and ample work space.  Bathroom was very clean with a strong stream of hot water from the shower.  There was a small fridge and microwave, although I do not know if these are features of every room.  
+Front desk service was friendly and reasonably efficient.  Lobby is very tiny and serves only as a place to check guests in and out.  I noticed a juice machine and a coffee brewer on the counter and believe that the motel offers these amenities in the morning, but i do not know if there are additional breakfast items available.  There is a soft drink vending machine just outside the lobby door with a small variety of flavors for $1 and bottled water for $2.
+Rooms are accessed via a courtyard / parking area off of the street in what appears to be a generally safe neighborhood and configuration.
+Overall a satisfactory stay at a reasonable price (for the Los Angeles area).  Los Angeles airport is less...As a Choice Privileges Diamond Elite member, I stay at Choice-branded properties well over 100 nights per year, of which Rodeway is one of their brands.  This particular property is not exceptional, but it is adequate and provides all of the basis.Don't expect elegance, as this is an older motel, and the property, while generally well maintained, shows many signs of wear and tear.  My room, however, was quite clean, with adequate furnishings, a comfortable bed, and ample work space.  Bathroom was very clean with a strong stream of hot water from the shower.  There was a small fridge and microwave, although I do not know if these are features of every room.  Front desk service was friendly and reasonably efficient.  Lobby is very tiny and serves only as a place to check guests in and out.  I noticed a juice machine and a coffee brewer on the counter and believe that the motel offers these amenities in the morning, but i do not know if there are additional breakfast items available.  There is a soft drink vending machine just outside the lobby door with a small variety of flavors for $1 and bottled water for $2.Rooms are accessed via a courtyard / parking area off of the street in what appears to be a generally safe neighborhood and configuration.Overall a satisfactory stay at a reasonable price (for the Los Angeles area).  Los Angeles airport is less than 10 minutes away when traffic is light.If all you are looking for is something simple and reasonably priced, this property may well fill the bill.  I've stayed here twice and would return in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r555728950-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>555728950</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>life saver!</t>
+  </si>
+  <si>
+    <t>out of nowhere my trucc lost power. my children and i were terrified. it was 43 degrees outside. my cell was 3% my lap tap was completely dead. a guy @dollar tree gave me a full charge. called the tow company, scheduled service at south bay lexus we all could not fit in the tow truck. me and children walked from el camino village to inglewood! talk about exhaustion: body in shock, aching muscles and soar leggs. checc in was fast, clerk was very considerate to our situation. we all showered and laid down. for this area-i wuz actually surprised. spacious room, great price value AND I TRAVEL A LOT-holiday inn express is $169 a night and im a ihg gold member this roadway inn room is much nicer AND has way more SPACE even more than the best westren and their fancy with excellent service BUT the room I received was spacious and equipped. THANK YOU for helping me and my children-God bless u &amp; your love onez!! MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>out of nowhere my trucc lost power. my children and i were terrified. it was 43 degrees outside. my cell was 3% my lap tap was completely dead. a guy @dollar tree gave me a full charge. called the tow company, scheduled service at south bay lexus we all could not fit in the tow truck. me and children walked from el camino village to inglewood! talk about exhaustion: body in shock, aching muscles and soar leggs. checc in was fast, clerk was very considerate to our situation. we all showered and laid down. for this area-i wuz actually surprised. spacious room, great price value AND I TRAVEL A LOT-holiday inn express is $169 a night and im a ihg gold member this roadway inn room is much nicer AND has way more SPACE even more than the best westren and their fancy with excellent service BUT the room I received was spacious and equipped. THANK YOU for helping me and my children-God bless u &amp; your love onez!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r546707988-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>546707988</t>
+  </si>
+  <si>
+    <t>12/11/2017</t>
+  </si>
+  <si>
+    <t>Not bad for a night or two</t>
+  </si>
+  <si>
+    <t>This hotel is fine if you are looking for a place to crash between flights or for a couple of days.  Beds and rooms are safe and clean which is all you really need to be worried about if you are looking for a place to stay.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r478841397-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>478841397</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>Bad neighborhood</t>
+  </si>
+  <si>
+    <t>But clean....i wouldnt stay here again...but for a quick overnight and since its part of the choice hotel chain...better than most of the motels on the block...the quality in closer to the airport much better...</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r477298753-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>477298753</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>Bad or Basic</t>
+  </si>
+  <si>
+    <t>Okay, so. We ended up here because we had a 12 hour layover for the night. We originally had another hotel booked and a confirmation in hand. However, they overbooked and we were told to hit the pavement. AT 10PM! IN INGLEWOOD, WITH ALL OUR BAGS. I was really scared. Anyway, we walked until we found a hotel with vacancy that we could afford. Not that any of the places in this area are nice but..whatever. Anyway, this was our saving grace and light at the end of the tunnel. The front desk was quick and kind. The room was clean. However, the neighborhood was still not for us.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r462667223-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>462667223</t>
+  </si>
+  <si>
+    <t>02/25/2017</t>
+  </si>
+  <si>
+    <t>Just a basic motel</t>
+  </si>
+  <si>
+    <t>Our choice was because it was near the airport and within budget as we had barely few hrs for our flight and we needed a place. They offer free parking. The place doesn't have good vibes both in neighborhood as well as cleanliess. We had out doubts if they actually change the sheets. the room was big in size. We would give it a skip if every we stay in LA.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r397942617-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>397942617</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Terrible location</t>
+  </si>
+  <si>
+    <t>Okay, my room was a "suite" and it was very clean and the bed was extremely comfortable.  Was in love with the AC unit...it worked very well. I turned that room into the "Artic".  However, the location is very bad.  Had I known anything about Inglewood, i would have never went there.  I never left the room until my cab showed up.  The building would have had to catch fire for me to walk out the door.  I wouldn't recommend the hotel strictly because it is in a very dangerous area. Also, don't expect a shuttle to get you back and forth from the airport.  Expect a taxi to charge you 25.00 to go to hotel and 15.00 to go to the airport.  I wasn't happy about that!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Okay, my room was a "suite" and it was very clean and the bed was extremely comfortable.  Was in love with the AC unit...it worked very well. I turned that room into the "Artic".  However, the location is very bad.  Had I known anything about Inglewood, i would have never went there.  I never left the room until my cab showed up.  The building would have had to catch fire for me to walk out the door.  I wouldn't recommend the hotel strictly because it is in a very dangerous area. Also, don't expect a shuttle to get you back and forth from the airport.  Expect a taxi to charge you 25.00 to go to hotel and 15.00 to go to the airport.  I wasn't happy about that!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r393761653-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>393761653</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>Great location for Business Travellers</t>
+  </si>
+  <si>
+    <t>the room was good, but the walls were too thin to hear the noise from the rooms above. they had all the required amenities. provided free wi-fi with great speeds and food options located nearby. Easy location from airport and other main cities in LA.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r385258874-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>385258874</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>Overnight due to flight cancellation</t>
+  </si>
+  <si>
+    <t>Not recommended for family with young children unless emg situation like us (not much to do).  Place was clean, friendly, and it beat the airport.  There is food places and convenient marts within walking distance.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r306311570-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>306311570</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>Newly refurbished and well maintained. Value for money is fair.</t>
+  </si>
+  <si>
+    <t>I ignor the user picx as they are old once.i visited recently, Rooms were clean as we have booked 3 rooms. if there is any problem they will help you. Make sure which room u have booked smoking or non smoking.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r304522353-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>304522353</t>
+  </si>
+  <si>
+    <t>08/28/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One night </t>
+  </si>
+  <si>
+    <t>Just enough for the price, I can't complaint . My room was clean, big and comfortable, call and ask for the price before you book on the web. The area doesn't look nice but if I want to go to a nicer area I have to pay more and it wasn't it my budget . It was its own parking, I recommend you to park your car all the way down, not close to the street.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r303737226-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>303737226</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>A Nightmare</t>
+  </si>
+  <si>
+    <t>Firs thing, I couldn't believe the area, the first room he gave me was on the second floor, the room was deplorable, the pleather  not leather sofa, was missing material, each cushions was missing a large piece of leather  and the rest was too much to say.  He moved us to the first floor with a jacuzzi, the room reaked with marijuana.  They should really close this hotel or motel up, I couldn't believe this.  We moved to the comfort suites right down the street.  Please do not believe everything that is written in these reviews, all I read were lies.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r288909363-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>288909363</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>Basic motel near LAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room is basic and typical of a cheap motel. The area isn't very pleasant, but there again it's a hotel just for an overnight stay due to its proximity to the airport. Room rates reasonable, wifi excellent, shower adequate, rooms reasonably clean. </t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r277666420-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>277666420</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>I like it!! Too bad it was right near a rough neighbourhood :(</t>
+  </si>
+  <si>
+    <t>We went to LA to do some sightseeing and found this place on a site.
+We got there late and the attendant was really cool. He said that he would give us a good room and well, it was an awesome room. 
+Here are some hotel highlights lol:
+Room: The room we got was like I said " awesome ". It had leather couches, air conditioning that was great, 2 Flat Screen TV's and an amazing bed. When I got in the room I was surprised it was a Rodeway Inn. I've stayed in these places before and this was the best one yet. 
+Location: Horrible. I feel so bad for this place because if it was in another location it would be amazing! This place is about 10 min drive to LAX and down the street from The Forum. Problem is Inglewood. Inglewood is a pretty unpleasant area and we thought we were going to get robbed simply by walking down the street. 
+Another thing I found was that the morning staff person seemed to not really know anything about the area. I asked him how we could get to Hollywood and he had no idea. (There was a bus right around the corner that took us right to Hollywood). I also asked him where the nearest place to get breakfast was. He had no idea. 
+Overall the room we got was great and the night staff member was...We went to LA to do some sightseeing and found this place on a site.We got there late and the attendant was really cool. He said that he would give us a good room and well, it was an awesome room. Here are some hotel highlights lol:Room: The room we got was like I said " awesome ". It had leather couches, air conditioning that was great, 2 Flat Screen TV's and an amazing bed. When I got in the room I was surprised it was a Rodeway Inn. I've stayed in these places before and this was the best one yet. Location: Horrible. I feel so bad for this place because if it was in another location it would be amazing! This place is about 10 min drive to LAX and down the street from The Forum. Problem is Inglewood. Inglewood is a pretty unpleasant area and we thought we were going to get robbed simply by walking down the street. Another thing I found was that the morning staff person seemed to not really know anything about the area. I asked him how we could get to Hollywood and he had no idea. (There was a bus right around the corner that took us right to Hollywood). I also asked him where the nearest place to get breakfast was. He had no idea. Overall the room we got was great and the night staff member was awesome. I would personally never go there again because I am too scared to go there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>We went to LA to do some sightseeing and found this place on a site.
+We got there late and the attendant was really cool. He said that he would give us a good room and well, it was an awesome room. 
+Here are some hotel highlights lol:
+Room: The room we got was like I said " awesome ". It had leather couches, air conditioning that was great, 2 Flat Screen TV's and an amazing bed. When I got in the room I was surprised it was a Rodeway Inn. I've stayed in these places before and this was the best one yet. 
+Location: Horrible. I feel so bad for this place because if it was in another location it would be amazing! This place is about 10 min drive to LAX and down the street from The Forum. Problem is Inglewood. Inglewood is a pretty unpleasant area and we thought we were going to get robbed simply by walking down the street. 
+Another thing I found was that the morning staff person seemed to not really know anything about the area. I asked him how we could get to Hollywood and he had no idea. (There was a bus right around the corner that took us right to Hollywood). I also asked him where the nearest place to get breakfast was. He had no idea. 
+Overall the room we got was great and the night staff member was...We went to LA to do some sightseeing and found this place on a site.We got there late and the attendant was really cool. He said that he would give us a good room and well, it was an awesome room. Here are some hotel highlights lol:Room: The room we got was like I said " awesome ". It had leather couches, air conditioning that was great, 2 Flat Screen TV's and an amazing bed. When I got in the room I was surprised it was a Rodeway Inn. I've stayed in these places before and this was the best one yet. Location: Horrible. I feel so bad for this place because if it was in another location it would be amazing! This place is about 10 min drive to LAX and down the street from The Forum. Problem is Inglewood. Inglewood is a pretty unpleasant area and we thought we were going to get robbed simply by walking down the street. Another thing I found was that the morning staff person seemed to not really know anything about the area. I asked him how we could get to Hollywood and he had no idea. (There was a bus right around the corner that took us right to Hollywood). I also asked him where the nearest place to get breakfast was. He had no idea. Overall the room we got was great and the night staff member was awesome. I would personally never go there again because I am too scared to go there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r275656630-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>275656630</t>
+  </si>
+  <si>
+    <t>05/29/2015</t>
+  </si>
+  <si>
+    <t>Hotel reflects the area</t>
+  </si>
+  <si>
+    <t>The hotel was very basic and really requires a upgrade as the rooms are tired.The rooms are clean and are OK for a one night stay if you require somewhere close to the airport.One word of warning Inglewood is not a place to wander out in especially at night and we did feel like a prisoner in the room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r235291820-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>235291820</t>
+  </si>
+  <si>
+    <t>10/19/2014</t>
+  </si>
+  <si>
+    <t>BIG ROOM!</t>
+  </si>
+  <si>
+    <t>I got a smoking suite. i would'e preferred a nonsmoking one, but that wasnt an issue.  The suite is IMMENSE in size.  Bed was comfy.  Linens decent.  Like the decore.  2 large tv's.  micro/fridge.  A/C decent.  Here is a tip.........park in the back! Its very secure to park ur car there.  Ice machine.  Wifi ok. didnt eat the breakfast.  U get the iron from the front desk.  great place to stay, if U r going to an event at the Forum.  0.8 miles walk, or the bus can take U there.  walkinmg back, at night, wasn't an issue. The only thing that drew my attention, was the hotel next door.  Their is an exmpty space between them.  That place looks creepy!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>I got a smoking suite. i would'e preferred a nonsmoking one, but that wasnt an issue.  The suite is IMMENSE in size.  Bed was comfy.  Linens decent.  Like the decore.  2 large tv's.  micro/fridge.  A/C decent.  Here is a tip.........park in the back! Its very secure to park ur car there.  Ice machine.  Wifi ok. didnt eat the breakfast.  U get the iron from the front desk.  great place to stay, if U r going to an event at the Forum.  0.8 miles walk, or the bus can take U there.  walkinmg back, at night, wasn't an issue. The only thing that drew my attention, was the hotel next door.  Their is an exmpty space between them.  That place looks creepy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r226065845-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>226065845</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>Good only for a short Stay</t>
+  </si>
+  <si>
+    <t>The hotel is under the approcing route of the lax airport. The room are spacious with microwave oven and fridge. The employer are not friendly. The breakfast is not good but is included is better go direction east for 1km were you find a Starbucks. If you want same food ore beverage ther'is a gas station with a shop open 24/24 7/7. Is good point to stay to visit Los angels and to rest when you arrive. To stay in this hotel you MUST have a car because ther'is no public transport in the area.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r206089113-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>206089113</t>
+  </si>
+  <si>
+    <t>05/18/2014</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel wishing to stay overnight on May 15, 2014, close to LAX, with a flight in the morning.  The room was in good condition, with excellent TV reception with many channels, clean and good shower, and washbasin outside the bath so one can brush etc. while the other is in the bathroom.  Both beds were good and we slept well.  The Inn is close to rental car return, and good eateries are within 6 to 7 miles.  Lastly, the desk manager, Karthik, was courteous and ensured that we were comfortable with the stay.  Breakfast is very meager, but adequate.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r183651117-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>183651117</t>
+  </si>
+  <si>
+    <t>11/05/2013</t>
+  </si>
+  <si>
+    <t>Rooms much improved after refurbishment</t>
+  </si>
+  <si>
+    <t>We have stayed in here many times due to the fact it is very close to the airport, rates are reasonable and large rooms are equipped with micro/fridges.  We were here in April/May and rooms were being refurbished, which is now complete.  The rooms are now brilliant with all new furniture, bed coverings and decorations.  The lady at check in was very friendly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r180454372-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>180454372</t>
+  </si>
+  <si>
+    <t>10/10/2013</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Let's get one thing straight this is not a high end hotel its a budget once you accept that you'll be fine.(+'S) close too LAX,easy access to most major highways,room was cleaned everyday,never ending hot water,lots of food choices in the area,(-)vanity light worked when it wanted,some ants in the tub.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r172611345-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>172611345</t>
+  </si>
+  <si>
+    <t>08/16/2013</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>We booked here just to stay the night after a long flight, the motel is conveniently close to the airport. We had two rooms, which were rather big and, at least, clean. Beds were also OK. We got what we were here for.  This is no luxury resort, though. Allegedly, the place is being renovated, but the only thing we saw as proof was a big sea container in the parking lot. That's were we saw the huge rat strolling about, it wasn't bothered by us at all. Probably, it was attracted by the foul smell of old cooking oil from the chicken restaurant next door that was all over the place. We were approached twice by desparate homeless people asking for money. It is a saddening neighbourhood.Staff was friendly, mostly minding their own business behind their tiny safety window. The breakfast (a cupcake and coffee from the office) is a joke.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>We booked here just to stay the night after a long flight, the motel is conveniently close to the airport. We had two rooms, which were rather big and, at least, clean. Beds were also OK. We got what we were here for.  This is no luxury resort, though. Allegedly, the place is being renovated, but the only thing we saw as proof was a big sea container in the parking lot. That's were we saw the huge rat strolling about, it wasn't bothered by us at all. Probably, it was attracted by the foul smell of old cooking oil from the chicken restaurant next door that was all over the place. We were approached twice by desparate homeless people asking for money. It is a saddening neighbourhood.Staff was friendly, mostly minding their own business behind their tiny safety window. The breakfast (a cupcake and coffee from the office) is a joke.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r169471175-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>169471175</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>Different than Before.......Awesome NOW</t>
+  </si>
+  <si>
+    <t>This hotel was recently 100% renovated. The rooms are absolutely fantastic and they are modern and completely updated. I have been here a few times and I understand some of the previous comments, but the place is under new management and the staff is friendly and helpful. This is a NEW version of the RoadWay Inn.......GREAT VALUE and location.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r163739262-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>163739262</t>
+  </si>
+  <si>
+    <t>06/11/2013</t>
+  </si>
+  <si>
+    <t>Fantabulous!</t>
+  </si>
+  <si>
+    <t>I would definitely go back and stay at Rodeway Inn and suits, it for sure made my trip even better. I got awesome service and the room was excellent. The location was really easy to find. Inside the motel and the room, it was really clean and it was organized in a beautiful way. I would recommend this place to anyone who wants to have an awesome time in LA!</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r157557021-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>157557021</t>
+  </si>
+  <si>
+    <t>04/12/2013</t>
+  </si>
+  <si>
+    <t>God hates you if He sent you here</t>
+  </si>
+  <si>
+    <t>There is no shuttle service to or from this hotel, however you can take the 117 bus during the day. After departing the LAX City Bus Center, sit near the front of the bus and after politely greeting the driver, ask them to let you off at Century &amp; Prairie. If your flight arrives after midnight, a taxi is gonna cost 19 bucks. Might as well put that towards a place with a free bus, closer to the airport and likely better overall. If you're into gambling, the Hollywood Casino and racetrack are across the road. Win some money and check into a classier place!
+The area is really not that bad. There are a few characters about, and Dr. Dre warned you that Inglewood is "always up to no good", but you'd have to go at least past Crenshaw Blvd. to start seeing some traditional ghetto-ness. There are lots of fast food joints and mini malls within walking distance. Eat before 10 o'clock because there are hardly any options for pedestrians afterwards. For classic sports fans, the Great Western Forum is viewable from the parking lot, about 400 meters up Prairie.
+As for the rooms, better than I expected. Spacious, big beds, free wifi and clean bathrooms. TV was old but the facility is being renovated, flat screens must be coming. Shower heads sucked. Staff were friendly despite being trapped behind glass like goldfish. Recommended to those who utilize...There is no shuttle service to or from this hotel, however you can take the 117 bus during the day. After departing the LAX City Bus Center, sit near the front of the bus and after politely greeting the driver, ask them to let you off at Century &amp; Prairie. If your flight arrives after midnight, a taxi is gonna cost 19 bucks. Might as well put that towards a place with a free bus, closer to the airport and likely better overall. If you're into gambling, the Hollywood Casino and racetrack are across the road. Win some money and check into a classier place!The area is really not that bad. There are a few characters about, and Dr. Dre warned you that Inglewood is "always up to no good", but you'd have to go at least past Crenshaw Blvd. to start seeing some traditional ghetto-ness. There are lots of fast food joints and mini malls within walking distance. Eat before 10 o'clock because there are hardly any options for pedestrians afterwards. For classic sports fans, the Great Western Forum is viewable from the parking lot, about 400 meters up Prairie.As for the rooms, better than I expected. Spacious, big beds, free wifi and clean bathrooms. TV was old but the facility is being renovated, flat screens must be coming. Shower heads sucked. Staff were friendly despite being trapped behind glass like goldfish. Recommended to those who utilize the Metro bus.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>There is no shuttle service to or from this hotel, however you can take the 117 bus during the day. After departing the LAX City Bus Center, sit near the front of the bus and after politely greeting the driver, ask them to let you off at Century &amp; Prairie. If your flight arrives after midnight, a taxi is gonna cost 19 bucks. Might as well put that towards a place with a free bus, closer to the airport and likely better overall. If you're into gambling, the Hollywood Casino and racetrack are across the road. Win some money and check into a classier place!
+The area is really not that bad. There are a few characters about, and Dr. Dre warned you that Inglewood is "always up to no good", but you'd have to go at least past Crenshaw Blvd. to start seeing some traditional ghetto-ness. There are lots of fast food joints and mini malls within walking distance. Eat before 10 o'clock because there are hardly any options for pedestrians afterwards. For classic sports fans, the Great Western Forum is viewable from the parking lot, about 400 meters up Prairie.
+As for the rooms, better than I expected. Spacious, big beds, free wifi and clean bathrooms. TV was old but the facility is being renovated, flat screens must be coming. Shower heads sucked. Staff were friendly despite being trapped behind glass like goldfish. Recommended to those who utilize...There is no shuttle service to or from this hotel, however you can take the 117 bus during the day. After departing the LAX City Bus Center, sit near the front of the bus and after politely greeting the driver, ask them to let you off at Century &amp; Prairie. If your flight arrives after midnight, a taxi is gonna cost 19 bucks. Might as well put that towards a place with a free bus, closer to the airport and likely better overall. If you're into gambling, the Hollywood Casino and racetrack are across the road. Win some money and check into a classier place!The area is really not that bad. There are a few characters about, and Dr. Dre warned you that Inglewood is "always up to no good", but you'd have to go at least past Crenshaw Blvd. to start seeing some traditional ghetto-ness. There are lots of fast food joints and mini malls within walking distance. Eat before 10 o'clock because there are hardly any options for pedestrians afterwards. For classic sports fans, the Great Western Forum is viewable from the parking lot, about 400 meters up Prairie.As for the rooms, better than I expected. Spacious, big beds, free wifi and clean bathrooms. TV was old but the facility is being renovated, flat screens must be coming. Shower heads sucked. Staff were friendly despite being trapped behind glass like goldfish. Recommended to those who utilize the Metro bus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r147144306-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>147144306</t>
+  </si>
+  <si>
+    <t>12/10/2012</t>
+  </si>
+  <si>
+    <t>Good prices, near LAX</t>
+  </si>
+  <si>
+    <t>I stayed at Rodeway Inn in Inglewood for 10 days.The motel is near LAX airport and close the Hwy 405.Walking distance to fast foods and just 2 min drive to the commercial center.Kind people. A very nice place for a very reasonable price.I really enjoyed my stay. I'll be staying there again.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r146770676-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>146770676</t>
+  </si>
+  <si>
+    <t>12/04/2012</t>
+  </si>
+  <si>
+    <t>Good prices, clean rooms, but a bit far away from touristic areas.</t>
+  </si>
+  <si>
+    <t>My husband and I traveled to LA to do some sightseeing and to visit touristic places like Hollywood, etc. The hotel rooms were spacious and clean, room rates were very reasonable and the hotel had parking facilities which was a plus.The only thing that did not go so well with our trip was that the hotel was quite far away from  touristic places. Since we had rented a car this wasn’t a huge issue, but next time I would definitely look for something a bit more centric.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r146405319-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>146405319</t>
+  </si>
+  <si>
+    <t>11/28/2012</t>
+  </si>
+  <si>
+    <t>Better than expected.</t>
+  </si>
+  <si>
+    <t>Good staff, four fast-food joints within walking-distance from the motel.  Nothing fancy, but close to LAX and affordable.  Good place to get some z's near the airport.  Or if you're a gambler, you can walk across the street to Hollywood Park.  I'll be staying there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r145283659-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>145283659</t>
+  </si>
+  <si>
+    <t>11/12/2012</t>
+  </si>
+  <si>
+    <t>Just what you need... clean bed</t>
+  </si>
+  <si>
+    <t>If you are travelling in a low budget, have a car to move around, and don't really mind the area, you might consider this hotel.For starter, the hotel is old, in general.. a little uplift couldn't do any harm, However, in general, the room was clean. We've got a suite, that was in the second floor. There was a TV area, dinner area, with fridge and microwave (that I didnt used but it looked really old!!), bathroom and the bedroom.The staff at the front desk was really nice, as well as the service maids. I actully looked when they were cleaning after some other guests mess... so they actually care on the cleaning.In the morning they have some pastries, bread, juice and coffee, however you will need to take it to your room as there is no sitting area.The only thing I was not so sure about, was the area where this hotel is located, as you can hear at night the police patrols going and coming... but, is LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you are travelling in a low budget, have a car to move around, and don't really mind the area, you might consider this hotel.For starter, the hotel is old, in general.. a little uplift couldn't do any harm, However, in general, the room was clean. We've got a suite, that was in the second floor. There was a TV area, dinner area, with fridge and microwave (that I didnt used but it looked really old!!), bathroom and the bedroom.The staff at the front desk was really nice, as well as the service maids. I actully looked when they were cleaning after some other guests mess... so they actually care on the cleaning.In the morning they have some pastries, bread, juice and coffee, however you will need to take it to your room as there is no sitting area.The only thing I was not so sure about, was the area where this hotel is located, as you can hear at night the police patrols going and coming... but, is LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r144045611-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>144045611</t>
+  </si>
+  <si>
+    <t>10/29/2012</t>
+  </si>
+  <si>
+    <t>wouldn't stay here again</t>
+  </si>
+  <si>
+    <t>stayed there for one night. sheets had stains all over, however, the staff was quick at replacing them - should pay more attention when cleaning the room.also the room is terribly in need of a dust job- there were really thick layers of dust on the flowers, the cupboard etc.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r143871042-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>143871042</t>
+  </si>
+  <si>
+    <t>10/27/2012</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>We chose this hotel based on reviews here.  The price and location were right.  The staff was friendly and anxious to please and we were impressed by the size of the room.  But, the spread and blanket on one of the beds in our room had stains on it.  They could NOT have been clean.  We tossed them and used only the sheets.  No, we did not complain to the management, though I'm certain they would have tried to remedy the situation.  It was late and we were tired.  The other problem some travelers might encounter is that although the room are on two levels, those on the second floor are accessible only by stairs.MoreShow less</t>
+  </si>
+  <si>
+    <t>We chose this hotel based on reviews here.  The price and location were right.  The staff was friendly and anxious to please and we were impressed by the size of the room.  But, the spread and blanket on one of the beds in our room had stains on it.  They could NOT have been clean.  We tossed them and used only the sheets.  No, we did not complain to the management, though I'm certain they would have tried to remedy the situation.  It was late and we were tired.  The other problem some travelers might encounter is that although the room are on two levels, those on the second floor are accessible only by stairs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r132074244-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>132074244</t>
+  </si>
+  <si>
+    <t>06/15/2012</t>
+  </si>
+  <si>
+    <t>Cheap and Nice</t>
+  </si>
+  <si>
+    <t>Booked this hotel because it was a cheaper hotel.  When arriving by car, the parking lot is big.  Upon check in the staff at the counter was very nice and helpful with our questions.  The room was bigger than expected and was as excepted for the type of hotel this is.  Everything was clean and in order.  Microwave and refrigerator were surprising. The air conditioner was louder than usual, but that did not bother myself and my travel partner, and it did work well! The area around the hotel did seem a little sketchy, but we spent our time out and about going places, so we only were around the hotel to go to sleep, and we had no problems.  Walked to the restaurant across the street in the morning for breakfast one day and had no problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Booked this hotel because it was a cheaper hotel.  When arriving by car, the parking lot is big.  Upon check in the staff at the counter was very nice and helpful with our questions.  The room was bigger than expected and was as excepted for the type of hotel this is.  Everything was clean and in order.  Microwave and refrigerator were surprising. The air conditioner was louder than usual, but that did not bother myself and my travel partner, and it did work well! The area around the hotel did seem a little sketchy, but we spent our time out and about going places, so we only were around the hotel to go to sleep, and we had no problems.  Walked to the restaurant across the street in the morning for breakfast one day and had no problems.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r120807474-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>120807474</t>
+  </si>
+  <si>
+    <t>11/19/2011</t>
+  </si>
+  <si>
+    <t>Big room, decent parking, thin walls</t>
+  </si>
+  <si>
+    <t>Wanted a decent but reasonably priced hotel near LAX that had free parking that you could actually access with something other than a mini Cooper and this met the bill.  The room was exceptionally large with a nice tub and shower AND had BOTH a microwave and mini frig so I didn't care that the "b'fast" was so basic that it wasn't worth bothering with (if you don't want to do it yourself there are 1 or 2 fast food places across street).  I SHOULD have been OK with this place BUT the room had a really OVERPOWERING SMELL that took 2 DAYS and a whole can of fabric freshener to get rid of, the walls and ceiling were REALLY THIN, the AC/heat unit was extremely LOUD  and the BED  wasn't particularly comfy (tho the pillows were nice).  Would stay again if the price was right but will probably continue my quest for the "perfect" budget hotel close to LAX.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>Wanted a decent but reasonably priced hotel near LAX that had free parking that you could actually access with something other than a mini Cooper and this met the bill.  The room was exceptionally large with a nice tub and shower AND had BOTH a microwave and mini frig so I didn't care that the "b'fast" was so basic that it wasn't worth bothering with (if you don't want to do it yourself there are 1 or 2 fast food places across street).  I SHOULD have been OK with this place BUT the room had a really OVERPOWERING SMELL that took 2 DAYS and a whole can of fabric freshener to get rid of, the walls and ceiling were REALLY THIN, the AC/heat unit was extremely LOUD  and the BED  wasn't particularly comfy (tho the pillows were nice).  Would stay again if the price was right but will probably continue my quest for the "perfect" budget hotel close to LAX.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r118519088-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>118519088</t>
+  </si>
+  <si>
+    <t>09/23/2011</t>
+  </si>
+  <si>
+    <t>A very pleasant stay</t>
+  </si>
+  <si>
+    <t>We went to LA for 20 days and this place was all we needed. The Internet was fine, rooms were clean, the place was quiet except the planes flying over the roof from time to time.Should I go to LA again for a longer period of time, I'd stay there again.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r67145174-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>67145174</t>
+  </si>
+  <si>
+    <t>06/10/2010</t>
+  </si>
+  <si>
+    <t>By far the best affordable hotel near LAX.</t>
+  </si>
+  <si>
+    <t>I have stayed at this Rodeway Inn, on average four times a month for over a year, traveling from New York City on brief business trips.
+After trying five other nearby motels on Century Blvd. coming out fron LAX airport I found that the Rodeay Inn is the best on all counts.
+Family Staff could not be friendlier or more helpful. 
+Whole facility, not just the room,  is always clean and correctly appointed.
+I have slept more soundly and comfortably there than at the Hilton hotel farther down.
+I always feel safe there because the staff looks out for you after you check in.
+Two major bus lines go in all directions and you can get to teh light rail system on one bus, and to Hollywood and Midtown on the other one bus line. Very convenient and cheap.
+It is across the street form the Hollywood Park Casino and Race Track, which gives me a close opportunity to play cards or see a race, if I wish, with no travel time at all. Has a 24 hour resturant and shop and is a nice extra should I choose to use it. There are also three major fast food outlets on the very corner intersection and a major supermarket a short drive away.
+Also: they have voluntarily upgraded me to a larger room or suite when I occasionally get there a little early and the room is not ready yet....I have stayed at this Rodeway Inn, on average four times a month for over a year, traveling from New York City on brief business trips.After trying five other nearby motels on Century Blvd. coming out fron LAX airport I found that the Rodeay Inn is the best on all counts.Family Staff could not be friendlier or more helpful. Whole facility, not just the room,  is always clean and correctly appointed.I have slept more soundly and comfortably there than at the Hilton hotel farther down.I always feel safe there because the staff looks out for you after you check in.Two major bus lines go in all directions and you can get to teh light rail system on one bus, and to Hollywood and Midtown on the other one bus line. Very convenient and cheap.It is across the street form the Hollywood Park Casino and Race Track, which gives me a close opportunity to play cards or see a race, if I wish, with no travel time at all. Has a 24 hour resturant and shop and is a nice extra should I choose to use it. There are also three major fast food outlets on the very corner intersection and a major supermarket a short drive away.Also: they have voluntarily upgraded me to a larger room or suite when I occasionally get there a little early and the room is not ready yet. Most places would make you wait in the lobby or come back but here, they offer to make you comfortable. I appreciated that a lot.So, when I come into Los Angeles every month I automatically book the Rodeway Inn in Inglewood on Centruy lvd. You earn value bonuses if you join the Choice Rewards Program and you can book online at anytime.  Comfort, safety, convenience and savings all make this my favorite place to stay...MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>I have stayed at this Rodeway Inn, on average four times a month for over a year, traveling from New York City on brief business trips.
+After trying five other nearby motels on Century Blvd. coming out fron LAX airport I found that the Rodeay Inn is the best on all counts.
+Family Staff could not be friendlier or more helpful. 
+Whole facility, not just the room,  is always clean and correctly appointed.
+I have slept more soundly and comfortably there than at the Hilton hotel farther down.
+I always feel safe there because the staff looks out for you after you check in.
+Two major bus lines go in all directions and you can get to teh light rail system on one bus, and to Hollywood and Midtown on the other one bus line. Very convenient and cheap.
+It is across the street form the Hollywood Park Casino and Race Track, which gives me a close opportunity to play cards or see a race, if I wish, with no travel time at all. Has a 24 hour resturant and shop and is a nice extra should I choose to use it. There are also three major fast food outlets on the very corner intersection and a major supermarket a short drive away.
+Also: they have voluntarily upgraded me to a larger room or suite when I occasionally get there a little early and the room is not ready yet....I have stayed at this Rodeway Inn, on average four times a month for over a year, traveling from New York City on brief business trips.After trying five other nearby motels on Century Blvd. coming out fron LAX airport I found that the Rodeay Inn is the best on all counts.Family Staff could not be friendlier or more helpful. Whole facility, not just the room,  is always clean and correctly appointed.I have slept more soundly and comfortably there than at the Hilton hotel farther down.I always feel safe there because the staff looks out for you after you check in.Two major bus lines go in all directions and you can get to teh light rail system on one bus, and to Hollywood and Midtown on the other one bus line. Very convenient and cheap.It is across the street form the Hollywood Park Casino and Race Track, which gives me a close opportunity to play cards or see a race, if I wish, with no travel time at all. Has a 24 hour resturant and shop and is a nice extra should I choose to use it. There are also three major fast food outlets on the very corner intersection and a major supermarket a short drive away.Also: they have voluntarily upgraded me to a larger room or suite when I occasionally get there a little early and the room is not ready yet. Most places would make you wait in the lobby or come back but here, they offer to make you comfortable. I appreciated that a lot.So, when I come into Los Angeles every month I automatically book the Rodeway Inn in Inglewood on Centruy lvd. You earn value bonuses if you join the Choice Rewards Program and you can book online at anytime.  Comfort, safety, convenience and savings all make this my favorite place to stay...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r64760355-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>64760355</t>
+  </si>
+  <si>
+    <t>05/19/2010</t>
+  </si>
+  <si>
+    <t>Loved it!</t>
+  </si>
+  <si>
+    <t>Rooms were large and clean for a great rate. I am always traveling and am very particular about the rooms I stay in.  I will be back!</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r33815395-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>33815395</t>
+  </si>
+  <si>
+    <t>07/03/2009</t>
+  </si>
+  <si>
+    <t>WARNING.. PLACE HAS BED BUGS!</t>
+  </si>
+  <si>
+    <t>I stayed in the dump for 2 nights and now we have bed bug bites. As they come out at night and bite up your body, however we were lucky enough to see a couple our last morning there but seeing as how we have never in our life seen them before we didn't know what they were. But now we have bites and bites on our bodies a complaint has been made but they claim they didn't see anything. Maybe it was one of the drug dealers or prostitutes that frequent there.. Beware of this place its in the Hood!</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r8450450-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>8450450</t>
+  </si>
+  <si>
+    <t>08/18/2007</t>
+  </si>
+  <si>
+    <t>Not good</t>
+  </si>
+  <si>
+    <t>The staff was very rude. The old man did not know how to respect customers. He refused to give us $50 credit for out 10 easy choice stamps. He is terrible. The microwave was broken. The staff was not friendly. The breakfast was a fake. All they have was very old spoiled doughnuts and some coffee that was enough for 4 people. They did not have enough towels in the rooms. They should seriously think about hiring different front desk staff especially the old man. He cant speak english or spanish and he has a very bad attitude and temper</t>
+  </si>
+  <si>
+    <t>August 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r6900721-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>6900721</t>
+  </si>
+  <si>
+    <t>03/01/2007</t>
+  </si>
+  <si>
+    <t>Not much in way of price or experience</t>
+  </si>
+  <si>
+    <t>The older man at the front desk, probably the owner, was very nice. I noticed by the office a room door had about 10 pairs of shoes by the door. I imagine it's family owned. Anyway, he was very sure to make sure I was the only one staying in the room. The area is not nice and I thinking that hookers are in area. Any how, the room was clean and only had bare necessaties. I took off to drive around town all evening instead of sitting in the barren room. It is not a place to stay other than to crash for a few hours of sleep. Nice guy at the desk, clean room, but not a place to chill.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2007</t>
+  </si>
+  <si>
+    <t>The older man at the front desk, probably the owner, was very nice. I noticed by the office a room door had about 10 pairs of shoes by the door. I imagine it's family owned. Anyway, he was very sure to make sure I was the only one staying in the room. The area is not nice and I thinking that hookers are in area. Any how, the room was clean and only had bare necessaties. I took off to drive around town all evening instead of sitting in the barren room. It is not a place to stay other than to crash for a few hours of sleep. Nice guy at the desk, clean room, but not a place to chill.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r6519322-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>6519322</t>
+  </si>
+  <si>
+    <t>12/29/2006</t>
+  </si>
+  <si>
+    <t>Bad choice</t>
+  </si>
+  <si>
+    <t>Dirty room, linen used and re-usedStaff unhelpful. passive...Th area is not very safe; for our first day at the motel a couple of prostitutes were knocking at each guest's door around 2 am. The accesss to the rooms is no restricted to guests only...</t>
+  </si>
+  <si>
+    <t>November 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r2810551-Rodeway_Inn_Suites-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>2810551</t>
+  </si>
+  <si>
+    <t>11/05/2004</t>
+  </si>
+  <si>
+    <t>A Nice Place To Stay</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at the Rodeway Inn on Century Blvd., Inglewood, CA(near LAX) on 10/13/2004. This Rodeway Inn is an older property, which is why I give it three rather than four circles, but the rooms are large and it has been nicely refurbished. It is back from the road, and very quiet for the area. We enjoyed the comfort of pillow-top mattresses and the simple continental breakfast they offer. This was our third stay at this hotel, and we plan to stay there again whenever we have an early morning flight out of LAX. It is hard to beat the price for what you receive.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1441,2522 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>119</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>136</v>
+      </c>
+      <c r="O16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>148</v>
+      </c>
+      <c r="O17" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>161</v>
+      </c>
+      <c r="O19" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>155</v>
+      </c>
+      <c r="O20" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>155</v>
+      </c>
+      <c r="O21" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" t="s">
+        <v>174</v>
+      </c>
+      <c r="K22" t="s">
+        <v>175</v>
+      </c>
+      <c r="L22" t="s">
+        <v>176</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>177</v>
+      </c>
+      <c r="O22" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" t="s">
+        <v>182</v>
+      </c>
+      <c r="L23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>177</v>
+      </c>
+      <c r="O23" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" t="s">
+        <v>188</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>189</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" t="s">
+        <v>193</v>
+      </c>
+      <c r="L25" t="s">
+        <v>194</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>195</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" t="s">
+        <v>199</v>
+      </c>
+      <c r="K26" t="s">
+        <v>200</v>
+      </c>
+      <c r="L26" t="s">
+        <v>201</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>202</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>204</v>
+      </c>
+      <c r="J27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K27" t="s">
+        <v>206</v>
+      </c>
+      <c r="L27" t="s">
+        <v>207</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>208</v>
+      </c>
+      <c r="O27" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>210</v>
+      </c>
+      <c r="J28" t="s">
+        <v>211</v>
+      </c>
+      <c r="K28" t="s">
+        <v>212</v>
+      </c>
+      <c r="L28" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>208</v>
+      </c>
+      <c r="O28" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>214</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>215</v>
+      </c>
+      <c r="J29" t="s">
+        <v>216</v>
+      </c>
+      <c r="K29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L29" t="s">
+        <v>218</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>202</v>
+      </c>
+      <c r="O29" t="s">
+        <v>76</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>220</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>221</v>
+      </c>
+      <c r="J30" t="s">
+        <v>222</v>
+      </c>
+      <c r="K30" t="s">
+        <v>223</v>
+      </c>
+      <c r="L30" t="s">
+        <v>224</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>225</v>
+      </c>
+      <c r="O30" t="s">
+        <v>76</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>226</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J31" t="s">
+        <v>228</v>
+      </c>
+      <c r="K31" t="s">
+        <v>229</v>
+      </c>
+      <c r="L31" t="s">
+        <v>230</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>208</v>
+      </c>
+      <c r="O31" t="s">
+        <v>76</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>233</v>
+      </c>
+      <c r="J32" t="s">
+        <v>234</v>
+      </c>
+      <c r="K32" t="s">
+        <v>235</v>
+      </c>
+      <c r="L32" t="s">
+        <v>236</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>237</v>
+      </c>
+      <c r="O32" t="s">
+        <v>89</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>239</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>240</v>
+      </c>
+      <c r="J33" t="s">
+        <v>241</v>
+      </c>
+      <c r="K33" t="s">
+        <v>242</v>
+      </c>
+      <c r="L33" t="s">
+        <v>243</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>244</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>246</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>247</v>
+      </c>
+      <c r="J34" t="s">
+        <v>248</v>
+      </c>
+      <c r="K34" t="s">
+        <v>249</v>
+      </c>
+      <c r="L34" t="s">
+        <v>250</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>251</v>
+      </c>
+      <c r="O34" t="s">
+        <v>69</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>252</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>253</v>
+      </c>
+      <c r="J35" t="s">
+        <v>254</v>
+      </c>
+      <c r="K35" t="s">
+        <v>255</v>
+      </c>
+      <c r="L35" t="s">
+        <v>256</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>257</v>
+      </c>
+      <c r="O35" t="s">
+        <v>69</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>259</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>260</v>
+      </c>
+      <c r="J36" t="s">
+        <v>261</v>
+      </c>
+      <c r="K36" t="s">
+        <v>262</v>
+      </c>
+      <c r="L36" t="s">
+        <v>263</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>264</v>
+      </c>
+      <c r="O36" t="s">
+        <v>69</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>265</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>266</v>
+      </c>
+      <c r="J37" t="s">
+        <v>267</v>
+      </c>
+      <c r="K37" t="s">
+        <v>268</v>
+      </c>
+      <c r="L37" t="s">
+        <v>269</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>270</v>
+      </c>
+      <c r="O37" t="s">
+        <v>76</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>271</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>272</v>
+      </c>
+      <c r="J38" t="s">
+        <v>273</v>
+      </c>
+      <c r="K38" t="s">
+        <v>274</v>
+      </c>
+      <c r="L38" t="s">
+        <v>275</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>276</v>
+      </c>
+      <c r="O38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>277</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>278</v>
+      </c>
+      <c r="J39" t="s">
+        <v>279</v>
+      </c>
+      <c r="K39" t="s">
+        <v>280</v>
+      </c>
+      <c r="L39" t="s">
+        <v>281</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>282</v>
+      </c>
+      <c r="O39" t="s">
+        <v>69</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>284</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>285</v>
+      </c>
+      <c r="J40" t="s">
+        <v>286</v>
+      </c>
+      <c r="K40" t="s">
+        <v>287</v>
+      </c>
+      <c r="L40" t="s">
+        <v>288</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>289</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>29839</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>290</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>291</v>
+      </c>
+      <c r="J41" t="s">
+        <v>292</v>
+      </c>
+      <c r="K41" t="s">
+        <v>293</v>
+      </c>
+      <c r="L41" t="s">
+        <v>294</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>294</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_664.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_664.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="334">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>step12dude</t>
   </si>
   <si>
     <t>07/10/2018</t>
@@ -191,6 +194,9 @@
 Overall a satisfactory stay at a reasonable price (for the Los Angeles area).  Los Angeles airport is less...As a Choice Privileges Diamond Elite member, I stay at Choice-branded properties well over 100 nights per year, of which Rodeway is one of their brands.  This particular property is not exceptional, but it is adequate and provides all of the basis.Don't expect elegance, as this is an older motel, and the property, while generally well maintained, shows many signs of wear and tear.  My room, however, was quite clean, with adequate furnishings, a comfortable bed, and ample work space.  Bathroom was very clean with a strong stream of hot water from the shower.  There was a small fridge and microwave, although I do not know if these are features of every room.  Front desk service was friendly and reasonably efficient.  Lobby is very tiny and serves only as a place to check guests in and out.  I noticed a juice machine and a coffee brewer on the counter and believe that the motel offers these amenities in the morning, but i do not know if there are additional breakfast items available.  There is a soft drink vending machine just outside the lobby door with a small variety of flavors for $1 and bottled water for $2.Rooms are accessed via a courtyard / parking area off of the street in what appears to be a generally safe neighborhood and configuration.Overall a satisfactory stay at a reasonable price (for the Los Angeles area).  Los Angeles airport is less than 10 minutes away when traffic is light.If all you are looking for is something simple and reasonably priced, this property may well fill the bill.  I've stayed here twice and would return in the future.More</t>
   </si>
   <si>
+    <t>Wessey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r555728950-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -215,6 +221,9 @@
     <t>out of nowhere my trucc lost power. my children and i were terrified. it was 43 degrees outside. my cell was 3% my lap tap was completely dead. a guy @dollar tree gave me a full charge. called the tow company, scheduled service at south bay lexus we all could not fit in the tow truck. me and children walked from el camino village to inglewood! talk about exhaustion: body in shock, aching muscles and soar leggs. checc in was fast, clerk was very considerate to our situation. we all showered and laid down. for this area-i wuz actually surprised. spacious room, great price value AND I TRAVEL A LOT-holiday inn express is $169 a night and im a ihg gold member this roadway inn room is much nicer AND has way more SPACE even more than the best westren and their fancy with excellent service BUT the room I received was spacious and equipped. THANK YOU for helping me and my children-God bless u &amp; your love onez!! More</t>
   </si>
   <si>
+    <t>BJWheeler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r546707988-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -236,6 +245,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>sandymccluskey1953</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r478841397-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -257,6 +269,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>jewelz20152016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r477298753-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -275,6 +290,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>SanAsh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r462667223-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -296,6 +314,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Stephney T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r397942617-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -317,6 +338,9 @@
     <t>Okay, my room was a "suite" and it was very clean and the bed was extremely comfortable.  Was in love with the AC unit...it worked very well. I turned that room into the "Artic".  However, the location is very bad.  Had I known anything about Inglewood, i would have never went there.  I never left the room until my cab showed up.  The building would have had to catch fire for me to walk out the door.  I wouldn't recommend the hotel strictly because it is in a very dangerous area. Also, don't expect a shuttle to get you back and forth from the airport.  Expect a taxi to charge you 25.00 to go to hotel and 15.00 to go to the airport.  I wasn't happy about that!More</t>
   </si>
   <si>
+    <t>mdahake</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r393761653-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -335,6 +359,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Dawn I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r385258874-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -350,6 +377,9 @@
     <t>Not recommended for family with young children unless emg situation like us (not much to do).  Place was clean, friendly, and it beat the airport.  There is food places and convenient marts within walking distance.</t>
   </si>
   <si>
+    <t>Kaushik B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r306311570-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -368,6 +398,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r304522353-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -386,6 +419,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>erica n</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r303737226-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -401,6 +437,9 @@
     <t>Firs thing, I couldn't believe the area, the first room he gave me was on the second floor, the room was deplorable, the pleather  not leather sofa, was missing material, each cushions was missing a large piece of leather  and the rest was too much to say.  He moved us to the first floor with a jacuzzi, the room reaked with marijuana.  They should really close this hotel or motel up, I couldn't believe this.  We moved to the comfort suites right down the street.  Please do not believe everything that is written in these reviews, all I read were lies.</t>
   </si>
   <si>
+    <t>Neris123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r288909363-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -417,6 +456,9 @@
   </si>
   <si>
     <t>July 2015</t>
+  </si>
+  <si>
+    <t>Wayner76</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r277666420-Rodeway_Inn_Suites-Inglewood_California.html</t>
@@ -452,6 +494,9 @@
 Overall the room we got was great and the night staff member was...We went to LA to do some sightseeing and found this place on a site.We got there late and the attendant was really cool. He said that he would give us a good room and well, it was an awesome room. Here are some hotel highlights lol:Room: The room we got was like I said " awesome ". It had leather couches, air conditioning that was great, 2 Flat Screen TV's and an amazing bed. When I got in the room I was surprised it was a Rodeway Inn. I've stayed in these places before and this was the best one yet. Location: Horrible. I feel so bad for this place because if it was in another location it would be amazing! This place is about 10 min drive to LAX and down the street from The Forum. Problem is Inglewood. Inglewood is a pretty unpleasant area and we thought we were going to get robbed simply by walking down the street. Another thing I found was that the morning staff person seemed to not really know anything about the area. I asked him how we could get to Hollywood and he had no idea. (There was a bus right around the corner that took us right to Hollywood). I also asked him where the nearest place to get breakfast was. He had no idea. Overall the room we got was great and the night staff member was awesome. I would personally never go there again because I am too scared to go there again.More</t>
   </si>
   <si>
+    <t>cookiebearsscotland</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r275656630-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -467,6 +512,9 @@
     <t>The hotel was very basic and really requires a upgrade as the rooms are tired.The rooms are clean and are OK for a one night stay if you require somewhere close to the airport.One word of warning Inglewood is not a place to wander out in especially at night and we did feel like a prisoner in the room.</t>
   </si>
   <si>
+    <t>oneeddy1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r235291820-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -488,6 +536,9 @@
     <t>I got a smoking suite. i would'e preferred a nonsmoking one, but that wasnt an issue.  The suite is IMMENSE in size.  Bed was comfy.  Linens decent.  Like the decore.  2 large tv's.  micro/fridge.  A/C decent.  Here is a tip.........park in the back! Its very secure to park ur car there.  Ice machine.  Wifi ok. didnt eat the breakfast.  U get the iron from the front desk.  great place to stay, if U r going to an event at the Forum.  0.8 miles walk, or the bus can take U there.  walkinmg back, at night, wasn't an issue. The only thing that drew my attention, was the hotel next door.  Their is an exmpty space between them.  That place looks creepy!More</t>
   </si>
   <si>
+    <t>Alessio M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r226065845-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -506,6 +557,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>ManyFunTravels1M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r206089113-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -524,6 +578,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>kerry w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r183651117-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -539,6 +596,9 @@
     <t>We have stayed in here many times due to the fact it is very close to the airport, rates are reasonable and large rooms are equipped with micro/fridges.  We were here in April/May and rooms were being refurbished, which is now complete.  The rooms are now brilliant with all new furniture, bed coverings and decorations.  The lady at check in was very friendly.</t>
   </si>
   <si>
+    <t>topcat595</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r180454372-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -554,6 +614,9 @@
     <t>Let's get one thing straight this is not a high end hotel its a budget once you accept that you'll be fine.(+'S) close too LAX,easy access to most major highways,room was cleaned everyday,never ending hot water,lots of food choices in the area,(-)vanity light worked when it wanted,some ants in the tub.</t>
   </si>
   <si>
+    <t>Houtjet</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r172611345-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -575,6 +638,9 @@
     <t>We booked here just to stay the night after a long flight, the motel is conveniently close to the airport. We had two rooms, which were rather big and, at least, clean. Beds were also OK. We got what we were here for.  This is no luxury resort, though. Allegedly, the place is being renovated, but the only thing we saw as proof was a big sea container in the parking lot. That's were we saw the huge rat strolling about, it wasn't bothered by us at all. Probably, it was attracted by the foul smell of old cooking oil from the chicken restaurant next door that was all over the place. We were approached twice by desparate homeless people asking for money. It is a saddening neighbourhood.Staff was friendly, mostly minding their own business behind their tiny safety window. The breakfast (a cupcake and coffee from the office) is a joke.More</t>
   </si>
   <si>
+    <t>SkinCEO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r169471175-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -590,6 +656,9 @@
     <t>This hotel was recently 100% renovated. The rooms are absolutely fantastic and they are modern and completely updated. I have been here a few times and I understand some of the previous comments, but the place is under new management and the staff is friendly and helpful. This is a NEW version of the RoadWay Inn.......GREAT VALUE and location.</t>
   </si>
   <si>
+    <t>lwdivim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r163739262-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -606,6 +675,9 @@
   </si>
   <si>
     <t>June 2013</t>
+  </si>
+  <si>
+    <t>Sens4life</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r157557021-Rodeway_Inn_Suites-Inglewood_California.html</t>
@@ -633,6 +705,9 @@
 As for the rooms, better than I expected. Spacious, big beds, free wifi and clean bathrooms. TV was old but the facility is being renovated, flat screens must be coming. Shower heads sucked. Staff were friendly despite being trapped behind glass like goldfish. Recommended to those who utilize...There is no shuttle service to or from this hotel, however you can take the 117 bus during the day. After departing the LAX City Bus Center, sit near the front of the bus and after politely greeting the driver, ask them to let you off at Century &amp; Prairie. If your flight arrives after midnight, a taxi is gonna cost 19 bucks. Might as well put that towards a place with a free bus, closer to the airport and likely better overall. If you're into gambling, the Hollywood Casino and racetrack are across the road. Win some money and check into a classier place!The area is really not that bad. There are a few characters about, and Dr. Dre warned you that Inglewood is "always up to no good", but you'd have to go at least past Crenshaw Blvd. to start seeing some traditional ghetto-ness. There are lots of fast food joints and mini malls within walking distance. Eat before 10 o'clock because there are hardly any options for pedestrians afterwards. For classic sports fans, the Great Western Forum is viewable from the parking lot, about 400 meters up Prairie.As for the rooms, better than I expected. Spacious, big beds, free wifi and clean bathrooms. TV was old but the facility is being renovated, flat screens must be coming. Shower heads sucked. Staff were friendly despite being trapped behind glass like goldfish. Recommended to those who utilize the Metro bus.More</t>
   </si>
   <si>
+    <t>Marceck</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r147144306-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -651,6 +726,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>KanguraCharrua</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r146770676-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -669,6 +747,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>Matt B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r146405319-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -684,6 +765,9 @@
     <t>Good staff, four fast-food joints within walking-distance from the motel.  Nothing fancy, but close to LAX and affordable.  Good place to get some z's near the airport.  Or if you're a gambler, you can walk across the street to Hollywood Park.  I'll be staying there again.</t>
   </si>
   <si>
+    <t>MTYMatilda11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r145283659-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -702,6 +786,9 @@
     <t>If you are travelling in a low budget, have a car to move around, and don't really mind the area, you might consider this hotel.For starter, the hotel is old, in general.. a little uplift couldn't do any harm, However, in general, the room was clean. We've got a suite, that was in the second floor. There was a TV area, dinner area, with fridge and microwave (that I didnt used but it looked really old!!), bathroom and the bedroom.The staff at the front desk was really nice, as well as the service maids. I actully looked when they were cleaning after some other guests mess... so they actually care on the cleaning.In the morning they have some pastries, bread, juice and coffee, however you will need to take it to your room as there is no sitting area.The only thing I was not so sure about, was the area where this hotel is located, as you can hear at night the police patrols going and coming... but, is LA.More</t>
   </si>
   <si>
+    <t>mark w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r144045611-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -720,6 +807,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>BabsNMarty</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r143871042-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -738,6 +828,9 @@
     <t>We chose this hotel based on reviews here.  The price and location were right.  The staff was friendly and anxious to please and we were impressed by the size of the room.  But, the spread and blanket on one of the beds in our room had stains on it.  They could NOT have been clean.  We tossed them and used only the sheets.  No, we did not complain to the management, though I'm certain they would have tried to remedy the situation.  It was late and we were tired.  The other problem some travelers might encounter is that although the room are on two levels, those on the second floor are accessible only by stairs.More</t>
   </si>
   <si>
+    <t>MusicSarah11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r132074244-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -759,6 +852,9 @@
     <t>Booked this hotel because it was a cheaper hotel.  When arriving by car, the parking lot is big.  Upon check in the staff at the counter was very nice and helpful with our questions.  The room was bigger than expected and was as excepted for the type of hotel this is.  Everything was clean and in order.  Microwave and refrigerator were surprising. The air conditioner was louder than usual, but that did not bother myself and my travel partner, and it did work well! The area around the hotel did seem a little sketchy, but we spent our time out and about going places, so we only were around the hotel to go to sleep, and we had no problems.  Walked to the restaurant across the street in the morning for breakfast one day and had no problems.More</t>
   </si>
   <si>
+    <t>zildana</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r120807474-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -780,6 +876,9 @@
     <t>Wanted a decent but reasonably priced hotel near LAX that had free parking that you could actually access with something other than a mini Cooper and this met the bill.  The room was exceptionally large with a nice tub and shower AND had BOTH a microwave and mini frig so I didn't care that the "b'fast" was so basic that it wasn't worth bothering with (if you don't want to do it yourself there are 1 or 2 fast food places across street).  I SHOULD have been OK with this place BUT the room had a really OVERPOWERING SMELL that took 2 DAYS and a whole can of fabric freshener to get rid of, the walls and ceiling were REALLY THIN, the AC/heat unit was extremely LOUD  and the BED  wasn't particularly comfy (tho the pillows were nice).  Would stay again if the price was right but will probably continue my quest for the "perfect" budget hotel close to LAX.More</t>
   </si>
   <si>
+    <t>Greunlis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r118519088-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -796,6 +895,9 @@
   </si>
   <si>
     <t>August 2011</t>
+  </si>
+  <si>
+    <t>latechieabc</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r67145174-Rodeway_Inn_Suites-Inglewood_California.html</t>
@@ -835,6 +937,9 @@
 Also: they have voluntarily upgraded me to a larger room or suite when I occasionally get there a little early and the room is not ready yet....I have stayed at this Rodeway Inn, on average four times a month for over a year, traveling from New York City on brief business trips.After trying five other nearby motels on Century Blvd. coming out fron LAX airport I found that the Rodeay Inn is the best on all counts.Family Staff could not be friendlier or more helpful. Whole facility, not just the room,  is always clean and correctly appointed.I have slept more soundly and comfortably there than at the Hilton hotel farther down.I always feel safe there because the staff looks out for you after you check in.Two major bus lines go in all directions and you can get to teh light rail system on one bus, and to Hollywood and Midtown on the other one bus line. Very convenient and cheap.It is across the street form the Hollywood Park Casino and Race Track, which gives me a close opportunity to play cards or see a race, if I wish, with no travel time at all. Has a 24 hour resturant and shop and is a nice extra should I choose to use it. There are also three major fast food outlets on the very corner intersection and a major supermarket a short drive away.Also: they have voluntarily upgraded me to a larger room or suite when I occasionally get there a little early and the room is not ready yet. Most places would make you wait in the lobby or come back but here, they offer to make you comfortable. I appreciated that a lot.So, when I come into Los Angeles every month I automatically book the Rodeway Inn in Inglewood on Centruy lvd. You earn value bonuses if you join the Choice Rewards Program and you can book online at anytime.  Comfort, safety, convenience and savings all make this my favorite place to stay...More</t>
   </si>
   <si>
+    <t>drk22angel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r64760355-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -853,6 +958,9 @@
     <t>May 2010</t>
   </si>
   <si>
+    <t>sexylibra</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r33815395-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -871,6 +979,9 @@
     <t>June 2009</t>
   </si>
   <si>
+    <t>brandon007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r8450450-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -889,6 +1000,9 @@
     <t>August 2007</t>
   </si>
   <si>
+    <t>tenxnc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r6900721-Rodeway_Inn_Suites-Inglewood_California.html</t>
   </si>
   <si>
@@ -908,6 +1022,9 @@
   </si>
   <si>
     <t>The older man at the front desk, probably the owner, was very nice. I noticed by the office a room door had about 10 pairs of shoes by the door. I imagine it's family owned. Anyway, he was very sure to make sure I was the only one staying in the room. The area is not nice and I thinking that hookers are in area. Any how, the room was clean and only had bare necessaties. I took off to drive around town all evening instead of sitting in the barren room. It is not a place to stay other than to crash for a few hours of sleep. Nice guy at the desk, clean room, but not a place to chill.More</t>
+  </si>
+  <si>
+    <t>missmuriel99</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d84173-r6519322-Rodeway_Inn_Suites-Inglewood_California.html</t>
@@ -1445,43 +1562,47 @@
       <c r="A2" t="n">
         <v>29839</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1501,50 +1622,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>29839</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1558,50 +1683,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>29839</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1619,50 +1748,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>29839</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1676,50 +1809,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>29839</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
         <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" t="s">
-        <v>76</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -1737,50 +1874,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>29839</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -1800,50 +1941,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>29839</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -1863,50 +2008,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>29839</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -1926,50 +2075,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>29839</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1983,50 +2136,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>29839</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2040,50 +2197,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>29839</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2097,50 +2258,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>29839</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -2160,50 +2325,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>29839</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2217,50 +2386,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>29839</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="O15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2278,50 +2451,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>29839</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="O16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -2339,50 +2516,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>29839</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>158</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="J17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="K17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="O17" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2398,50 +2579,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>29839</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="O18" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2455,50 +2640,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>29839</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>173</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="K19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="O19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2522,50 +2711,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>29839</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>180</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="O20" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -2589,50 +2782,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>29839</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>186</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="J21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="K21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="O21" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2646,50 +2843,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>29839</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>192</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="J22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="K22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="O22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -2713,50 +2914,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>29839</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>200</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="J23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="O23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2780,50 +2985,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>29839</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>206</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="J24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -2847,50 +3056,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>29839</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>213</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="J25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="K25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -2904,50 +3117,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>29839</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>221</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="J26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="K26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -2971,50 +3188,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>29839</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>228</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="J27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="K27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="O27" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -3038,50 +3259,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>29839</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>235</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="J28" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="K28" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="O28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -3105,50 +3330,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>29839</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>241</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="J29" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="K29" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="L29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="O29" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3172,50 +3401,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>29839</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>248</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="J30" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="K30" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="L30" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="O30" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -3239,50 +3472,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>29839</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>255</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="J31" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="K31" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="O31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3306,50 +3543,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>29839</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>262</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="J32" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="K32" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="O32" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -3373,50 +3614,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>29839</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>270</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="J33" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="K33" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="L33" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -3440,50 +3685,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>29839</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>278</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="J34" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="K34" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="L34" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="O34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -3507,50 +3756,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>29839</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>285</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="J35" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="K35" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="L35" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="O35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3574,50 +3827,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>29839</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>293</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="J36" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="K36" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="L36" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="O36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3631,50 +3888,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>29839</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>300</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="J37" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="K37" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="L37" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="O37" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P37" t="n">
         <v>2</v>
@@ -3698,50 +3959,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>29839</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>307</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="J38" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="K38" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="L38" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="O38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -3765,50 +4030,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>29839</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>314</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="J39" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="K39" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="L39" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="O39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -3828,50 +4097,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>29839</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>322</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="J40" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="K40" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="L40" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -3895,41 +4168,45 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>29839</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>124</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="J41" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="K41" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="L41" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
@@ -3954,7 +4231,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
